--- a/biology/Zoologie/Gorilla_Grodd/Gorilla_Grodd.xlsx
+++ b/biology/Zoologie/Gorilla_Grodd/Gorilla_Grodd.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Gorilla Grodd est un super-vilain de l'univers de DC Comics. Créé par John Broome et Carmine Infantino, le personnage de fiction apparaît pour la première fois dans le comic book Flash #106 en mai 1959.
@@ -513,7 +525,9 @@
           <t>Biographie fictive</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">À l'origine, Gorilla Grodd est un gorille ordinaire, jusqu'au jour où ses camarades et lui tombent par hasard sur un vaisseau extra-terrestre (un météore radioactif dans les versions moins récentes). Le pilote du vaisseau rend les singes intelligents, et donne à deux d'entre eux, Grodd et un autre nommé Solovar, des pouvoirs psychiques. En remerciement, les gorilles prennent l'extra-terrestre pour chef. Sous ses ordres, ils fondent une cité hautement avancée technologiquement, Gorilla-City.
 Pendant des années, les gorilles vivent en paix, jusqu'au jour où des explorateurs humains tombent par hasard sur la cité. Saisissant l'occasion, Grodd force l'un des humains à tuer l'extra-terrestre, pour se débarrasser de lui sans éveiller de soupçons. Le champ libre, il prend le pouvoir à Gorilla-City et se prépare à conquérir le monde. Pour cela, Grodd fait prisonnier son camarade Solovar, dont il arrache le secret du contrôle mental, afin de s'assurer la loyauté des autres gorilles. Solovar s'échappe de sa cage et contacte télépathiquement Barry Allen, plus connu comme le héros Flash, pour qu'il l'aide. Le super-héros parvient à vaincre Grodd et semble le priver de son pouvoir de contrôle mental.
@@ -557,7 +571,9 @@
           <t>Pouvoirs et capacités</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Gorilla Grodd possède de très vastes pouvoirs psychiques, qu'il peut employer à divers usages. Quelques-uns des usages qu'il en a fait incluent le contrôle mental, la télépathie, la télékinésie dont les attaques télékinésiques, la transmutation de la matière via télékinésie et le transfert de son esprit dans le corps d'autres êtres vivants. Dans les incarnations plus récentes, il a démontré la capacité à absorber l’intelligence d'êtres humains en consommant leurs cerveaux. On peut toutefois noter que certains Flash ont démontré la capacité à résister partiellement à sa télépathie grâce à leur vitesse.
 En dehors de ses pouvoirs, Gorilla Grodd possède les aptitudes propres à un gorille, et une force très supérieure à un gorille moyen. C'est un génie scientifique et stratégique, capable de construire une grande variétés de machines avancées et d'organiser des plans élaborés pour arriver à ses fins.
@@ -591,19 +607,127 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Télévision
-Super Friends (1973-1986) animation (Hanna–Barbera)
+          <t>Télévision</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Super Friends (1973-1986) animation (Hanna–Barbera)
 La Ligue des justiciers (Justice League puis Justice League Unlimited, 91 épisodes, Paul Dini, Bruce Timm, 2001-2006) avec Powers Boothe (VF : Marc Alfos, Philippe Ogouz)
 Batman : L'Alliance des héros (Batman: The Brave and the Bold) avec John DiMaggio (VF : Thierry Murzeau)
 Superman/Batman : Ennemis publics avec Brian George (VF : Thierry Murzeau)
 Dans la série télévisée Flash, Grodd est un gorille qui a été utilisé comme cobaye par le général Eiling pour des expériences sur la télépathie. Plus tard, il sera recueilli par "Harrison Wells" au sein de STAR Labs mais s'évadera lors de l'explosion du générateur de particules. Il ira alors se réfugier dans les égouts de la ville. Développant son intelligence et d'incroyables pouvoirs psychiques, il sera utilisé par Reverse-Flash pour distraire Flash le temps de mettre son plan au point. Il finit par échouer à tuer Flash et se retrouve sur une autre Terre près d'une ville habité par d'autres Gorilles mutants. Grodd manipulera Flash pour détrôner Solovar et prendre le contrôle de son armée de Gorilles pour envahir Central City. Mais son plan échouera et il sera vaincu par Solovar qui reprendra la tête de son armée. Le jour de l'Enseignement causé par DeVoe, Grodd utilise ses pouvoirs pour contrôler un garde de l'A.R.G.U.S. pour avoir des renseignements sur King Shark ainsi que sur sa couronne télépathique et préparer son évasion. Il sera vaincu par King Shark avec l'aide de Flash et Xs (alias Nora West Allen, la fille de Barry et Iris), et placé dans un coma artificiel pour l'empêcher d'utiliser ses pouvoirs . Grodd se battra finalement aux côtés de Flash pour vaincre Solovar dans son esprit. Puis Grodd retournera à Gorilla City pour faire amende honorable de ses actions passées.
-Legends of Tomorrow. Cette série se situe dans le même univers que Flash. Grodd rejoindra les fidèles du démon Mallus pour combattre les Légendes mais sera vaincu et renvoyé dans sa prison de l'A.R.G.U.S.
-Film d'animation
-Batman Ninja (Junpei Mizusaki, 2018) (VF : Paul Borne)
-Le personnage de Grodd dans DC Super Hero Girls
-Dans les dessins animés DC Super Hero Girls, Grodd fait partie des gentils, c'est l'un des rares personnages masculins de cette série. C'est un ancien super-vilain repenti qui est devenu professeur dans l'école de super-héros.
-Jeux vidéo
-Lego Batman 2: DC Super Heroes (contenu supplémentaire)
+Legends of Tomorrow. Cette série se situe dans le même univers que Flash. Grodd rejoindra les fidèles du démon Mallus pour combattre les Légendes mais sera vaincu et renvoyé dans sa prison de l'A.R.G.U.S.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Gorilla_Grodd</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gorilla_Grodd</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Adaptations à d'autres médias</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Film d'animation</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Batman Ninja (Junpei Mizusaki, 2018) (VF : Paul Borne)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Gorilla_Grodd</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gorilla_Grodd</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Adaptations à d'autres médias</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Le personnage de Grodd dans DC Super Hero Girls</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans les dessins animés DC Super Hero Girls, Grodd fait partie des gentils, c'est l'un des rares personnages masculins de cette série. C'est un ancien super-vilain repenti qui est devenu professeur dans l'école de super-héros.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Gorilla_Grodd</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gorilla_Grodd</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Adaptations à d'autres médias</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Jeux vidéo</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Lego Batman 2: DC Super Heroes (contenu supplémentaire)
 Lego Batman 3 : Au-delà Gotham
 DC Universe : Free to play
 Injustice 2</t>
